--- a/categorize数据初整理.xlsx
+++ b/categorize数据初整理.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,60 +373,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>变量名</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类别\范围</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否舍弃</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>变量结构</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>是否舍弃</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>类别\范围</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
         </is>
       </c>
     </row>
@@ -453,13 +432,6 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,13 +456,6 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -515,13 +480,6 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,13 +504,6 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,13 +528,6 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -608,13 +552,6 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -639,13 +576,6 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -670,13 +600,6 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -701,13 +624,6 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,13 +648,6 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -759,13 +668,6 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -786,13 +688,6 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -813,13 +708,6 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,13 +732,6 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -871,13 +752,6 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -898,13 +772,6 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -925,13 +792,6 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -952,13 +812,6 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -979,13 +832,6 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1006,13 +852,6 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1033,13 +872,6 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1060,13 +892,6 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1087,13 +912,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1114,13 +932,6 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1145,13 +956,6 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1172,13 +976,6 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1199,13 +996,6 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1226,13 +1016,6 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1253,13 +1036,6 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1280,13 +1056,6 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1307,13 +1076,6 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1334,13 +1096,6 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1361,13 +1116,6 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1388,13 +1136,6 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1415,13 +1156,6 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1442,13 +1176,6 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1473,13 +1200,6 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1500,13 +1220,6 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1527,13 +1240,6 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1554,13 +1260,6 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1581,13 +1280,6 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1608,13 +1300,6 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1635,13 +1320,6 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1662,13 +1340,6 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1689,13 +1360,6 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1716,13 +1380,6 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1743,13 +1400,6 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1770,13 +1420,6 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1797,13 +1440,6 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1824,13 +1460,6 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1851,13 +1480,6 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1878,13 +1500,6 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1905,13 +1520,6 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1932,13 +1540,6 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1959,13 +1560,6 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1986,13 +1580,6 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2013,13 +1600,6 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2040,13 +1620,6 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2067,13 +1640,6 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2094,13 +1660,6 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2121,13 +1680,6 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2152,13 +1704,6 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2179,13 +1724,6 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2206,13 +1744,6 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2233,13 +1764,6 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2260,13 +1784,6 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2287,13 +1804,6 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2314,13 +1824,6 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2341,13 +1844,6 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2368,13 +1864,6 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2395,13 +1884,6 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2422,13 +1904,6 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2449,13 +1924,6 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2476,13 +1944,6 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2503,13 +1964,6 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2530,13 +1984,6 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2557,13 +2004,6 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2584,13 +2024,6 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2611,13 +2044,6 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2638,13 +2064,6 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2665,13 +2084,6 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2692,13 +2104,6 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2719,13 +2124,6 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2746,13 +2144,6 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2773,13 +2164,6 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2800,13 +2184,6 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2827,13 +2204,6 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2846,7 +2216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,60 +2225,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>变量名</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类别\范围</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否舍弃</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>变量结构</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>是否舍弃</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>类别\范围</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
         </is>
       </c>
     </row>
@@ -2939,13 +2288,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2974,13 +2316,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3009,13 +2344,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3044,13 +2372,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3079,13 +2400,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -3114,13 +2428,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3149,13 +2456,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3184,13 +2484,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3219,13 +2512,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3254,13 +2540,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -3289,13 +2568,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3324,13 +2596,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -3359,13 +2624,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3394,13 +2652,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3433,13 +2684,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3472,13 +2716,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3507,13 +2744,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3542,13 +2772,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3577,13 +2800,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3608,13 +2824,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3639,13 +2848,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3670,13 +2872,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3705,13 +2900,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3736,13 +2924,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3767,13 +2948,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3798,13 +2972,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3829,13 +2996,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3860,13 +3020,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3891,13 +3044,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3922,13 +3068,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3953,13 +3092,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3980,13 +3112,6 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4011,13 +3136,6 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4038,13 +3156,6 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4065,13 +3176,6 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4092,13 +3196,6 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4119,13 +3216,6 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4146,13 +3236,6 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4173,13 +3256,6 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4200,13 +3276,6 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4227,13 +3296,6 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4254,13 +3316,6 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4281,13 +3336,6 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4308,13 +3356,6 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4335,13 +3376,6 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4362,13 +3396,6 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4389,13 +3416,6 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4416,13 +3436,6 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4443,13 +3456,6 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4470,13 +3476,6 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4497,13 +3496,6 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4524,13 +3516,6 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4551,13 +3536,6 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4578,13 +3556,6 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4605,13 +3576,6 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4632,13 +3596,6 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4659,13 +3616,6 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4686,13 +3636,6 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4713,13 +3656,6 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4740,13 +3676,6 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4767,13 +3696,6 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4794,13 +3716,6 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4821,13 +3736,6 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4848,13 +3756,6 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4875,13 +3776,6 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4906,13 +3800,6 @@
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4925,7 +3812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4934,60 +3821,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>变量名</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类别\范围</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否舍弃</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>变量结构</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>是否舍弃</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>类别\范围</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
         </is>
       </c>
     </row>
@@ -5018,13 +3884,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -5057,13 +3916,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5096,13 +3948,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -5135,13 +3980,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -5174,13 +4012,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -5209,13 +4040,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5244,13 +4068,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5279,13 +4096,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5310,13 +4120,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5345,13 +4148,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -5380,13 +4176,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -5419,13 +4208,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -5454,13 +4236,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -5489,13 +4264,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5524,13 +4292,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5559,13 +4320,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5594,13 +4348,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -5629,13 +4376,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -5660,13 +4400,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -5691,13 +4424,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -5722,13 +4448,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5753,13 +4472,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -5784,13 +4496,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -5815,13 +4520,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -5846,13 +4544,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5877,13 +4568,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5908,13 +4592,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5939,13 +4616,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5970,13 +4640,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -6001,13 +4664,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -6032,13 +4688,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6063,13 +4712,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6094,13 +4736,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6113,7 +4748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6122,60 +4757,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>变量名</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类别\范围</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否舍弃</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>变量结构</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>是否舍弃</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>类别\范围</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
         </is>
       </c>
     </row>
@@ -6206,13 +4820,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6245,13 +4852,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6280,13 +4880,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6311,13 +4904,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -6342,13 +4928,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -6373,13 +4952,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6404,13 +4976,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6435,13 +5000,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6466,13 +5024,6 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6493,13 +5044,6 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6528,13 +5072,6 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6555,13 +5092,6 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -6586,13 +5116,6 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -6613,13 +5136,6 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -6640,13 +5156,6 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -6671,13 +5180,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6698,13 +5200,6 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6725,13 +5220,6 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6756,13 +5244,6 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6783,13 +5264,6 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -6810,13 +5284,6 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -6837,13 +5304,6 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -6864,13 +5324,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -6891,13 +5344,6 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -6918,13 +5364,6 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -6945,13 +5384,6 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -6972,13 +5404,6 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -6999,13 +5424,6 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -7030,13 +5448,6 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -7057,13 +5468,6 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -7088,13 +5492,6 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -7115,13 +5512,6 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -7142,13 +5532,6 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -7169,13 +5552,6 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -7196,13 +5572,6 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7215,7 +5584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7224,60 +5593,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>变量名</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类别\范围</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否舍弃</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>变量结构</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>是否舍弃</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>类别\范围</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
         </is>
       </c>
     </row>
@@ -7308,13 +5656,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7339,13 +5680,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -7366,13 +5700,6 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -7393,13 +5720,6 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7420,13 +5740,6 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -7447,13 +5760,6 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -7474,13 +5780,6 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -7501,13 +5800,6 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -7528,13 +5820,6 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7555,13 +5840,6 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7582,13 +5860,6 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7609,13 +5880,6 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7636,13 +5900,6 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7655,7 +5912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7664,60 +5921,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>变量名</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类别\范围</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否舍弃</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>变量结构</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>是否舍弃</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>类别\范围</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
         </is>
       </c>
     </row>
@@ -7752,13 +5988,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7787,13 +6016,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -7822,13 +6044,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -7857,13 +6072,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7892,13 +6100,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -7923,13 +6124,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -7954,13 +6148,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -7985,13 +6172,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -8016,13 +6196,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -8047,13 +6220,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -8082,13 +6248,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8109,13 +6268,6 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -8136,13 +6288,6 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -8163,13 +6308,6 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8190,13 +6328,6 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8217,13 +6348,6 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -8244,13 +6368,6 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -8271,13 +6388,6 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -8298,13 +6408,6 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -8325,13 +6428,6 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -8352,13 +6448,6 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -8379,13 +6468,6 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -8406,13 +6488,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -8433,13 +6508,6 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -8460,13 +6528,6 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -8487,13 +6548,6 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -8518,13 +6572,6 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -8545,13 +6592,6 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -8564,7 +6604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8573,60 +6613,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>变量名</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类别\范围</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否舍弃</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>变量结构</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>是否舍弃</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>类别\范围</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
         </is>
       </c>
     </row>
@@ -8657,13 +6676,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8692,13 +6704,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8723,13 +6728,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -8754,13 +6752,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -8785,13 +6776,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8816,13 +6800,6 @@
           <t>企业资产</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -8847,13 +6824,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -8878,13 +6848,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -8909,13 +6872,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -8944,13 +6900,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -8975,13 +6924,6 @@
           <t>企业</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
